--- a/result_files/final_result_dataAug_T_lapras_ST1_NT2.xlsx
+++ b/result_files/final_result_dataAug_T_lapras_ST1_NT2.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5998027613412229</v>
+        <v>0.8201676528599606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3184657126228178</v>
+        <v>0.1432348664414804</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8706114398422091</v>
+        <v>0.7920611439842209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04582945391231473</v>
+        <v>0.1399943064866937</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9982248520710059</v>
+        <v>0.8178994082840237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008597433813689736</v>
+        <v>0.1766325669289702</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5612426035502958</v>
+        <v>0.6530078895463511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07964962526682787</v>
+        <v>0.1603199767724667</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8960428994082841</v>
+        <v>0.8366494082840237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07072867356991232</v>
+        <v>0.08090648525212538</v>
       </c>
     </row>
   </sheetData>

--- a/result_files/final_result_dataAug_T_lapras_ST1_NT2.xlsx
+++ b/result_files/final_result_dataAug_T_lapras_ST1_NT2.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8201676528599606</v>
+        <v>0.8543885601577909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1432348664414804</v>
+        <v>0.09741649354818492</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7920611439842209</v>
+        <v>0.7727810650887573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1399943064866937</v>
+        <v>0.1308455529475774</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8178994082840237</v>
+        <v>0.8237672583826431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1766325669289702</v>
+        <v>0.1915068542333239</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6530078895463511</v>
+        <v>0.6274654832347141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1603199767724667</v>
+        <v>0.1807483072496837</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8366494082840237</v>
+        <v>0.8439718934911242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08090648525212538</v>
+        <v>0.0917401979969599</v>
       </c>
     </row>
   </sheetData>
